--- a/Result/Orbit/Manufacturing/BRA.xlsx
+++ b/Result/Orbit/Manufacturing/BRA.xlsx
@@ -463,7 +463,7 @@
         <v>1980</v>
       </c>
       <c r="B2" t="n">
-        <v>29.94925716914291</v>
+        <v>30.05982565947322</v>
       </c>
       <c r="C2" t="inlineStr"/>
       <c r="D2" t="inlineStr"/>
@@ -473,7 +473,7 @@
         <v>1981</v>
       </c>
       <c r="B3" t="n">
-        <v>30.18430948209948</v>
+        <v>30.18810036080294</v>
       </c>
       <c r="C3" t="inlineStr"/>
       <c r="D3" t="inlineStr"/>
@@ -483,7 +483,7 @@
         <v>1982</v>
       </c>
       <c r="B4" t="n">
-        <v>32.25920381119727</v>
+        <v>30.46573381839312</v>
       </c>
       <c r="C4" t="inlineStr"/>
       <c r="D4" t="inlineStr"/>
@@ -493,7 +493,7 @@
         <v>1983</v>
       </c>
       <c r="B5" t="n">
-        <v>31.96205941340536</v>
+        <v>32.30300032819527</v>
       </c>
       <c r="C5" t="inlineStr"/>
       <c r="D5" t="inlineStr"/>
@@ -503,7 +503,7 @@
         <v>1984</v>
       </c>
       <c r="B6" t="n">
-        <v>34.27124671763331</v>
+        <v>31.87907790967353</v>
       </c>
       <c r="C6" t="inlineStr"/>
       <c r="D6" t="inlineStr"/>
@@ -513,7 +513,7 @@
         <v>1985</v>
       </c>
       <c r="B7" t="n">
-        <v>32.47170291984406</v>
+        <v>34.15369814890543</v>
       </c>
       <c r="C7" t="inlineStr"/>
       <c r="D7" t="inlineStr"/>
@@ -523,7 +523,7 @@
         <v>1986</v>
       </c>
       <c r="B8" t="n">
-        <v>30.67637054548271</v>
+        <v>32.74605225578902</v>
       </c>
       <c r="C8" t="inlineStr"/>
       <c r="D8" t="inlineStr"/>
@@ -533,7 +533,7 @@
         <v>1987</v>
       </c>
       <c r="B9" t="n">
-        <v>29.88182258893424</v>
+        <v>30.59689030640838</v>
       </c>
       <c r="C9" t="inlineStr"/>
       <c r="D9" t="inlineStr"/>
@@ -543,7 +543,7 @@
         <v>1988</v>
       </c>
       <c r="B10" t="n">
-        <v>29.978592167725</v>
+        <v>29.5366756832175</v>
       </c>
       <c r="C10" t="inlineStr"/>
       <c r="D10" t="inlineStr"/>
@@ -553,7 +553,7 @@
         <v>1989</v>
       </c>
       <c r="B11" t="n">
-        <v>29.26089572859051</v>
+        <v>29.98986836551079</v>
       </c>
       <c r="C11" t="inlineStr"/>
       <c r="D11" t="inlineStr"/>
@@ -563,7 +563,7 @@
         <v>1990</v>
       </c>
       <c r="B12" t="n">
-        <v>22.82812987817549</v>
+        <v>29.18399818704253</v>
       </c>
       <c r="C12" t="inlineStr"/>
       <c r="D12" t="inlineStr"/>
@@ -573,7 +573,7 @@
         <v>1991</v>
       </c>
       <c r="B13" t="n">
-        <v>21.83906737688613</v>
+        <v>22.68240691876805</v>
       </c>
       <c r="C13" t="inlineStr"/>
       <c r="D13" t="inlineStr"/>
@@ -583,7 +583,7 @@
         <v>1992</v>
       </c>
       <c r="B14" t="n">
-        <v>23.30859761087759</v>
+        <v>21.24016214060751</v>
       </c>
       <c r="C14" t="inlineStr"/>
       <c r="D14" t="inlineStr"/>
@@ -593,7 +593,7 @@
         <v>1993</v>
       </c>
       <c r="B15" t="n">
-        <v>26.04973651086909</v>
+        <v>22.78602607490069</v>
       </c>
       <c r="C15" t="inlineStr"/>
       <c r="D15" t="inlineStr"/>
@@ -603,7 +603,7 @@
         <v>1994</v>
       </c>
       <c r="B16" t="n">
-        <v>23.72123370088062</v>
+        <v>26.28646119917809</v>
       </c>
       <c r="C16" t="inlineStr"/>
       <c r="D16" t="inlineStr"/>
@@ -613,7 +613,7 @@
         <v>1995</v>
       </c>
       <c r="B17" t="n">
-        <v>14.54227915106878</v>
+        <v>23.88440659473602</v>
       </c>
       <c r="C17" t="inlineStr"/>
       <c r="D17" t="inlineStr"/>
@@ -623,7 +623,7 @@
         <v>1996</v>
       </c>
       <c r="B18" t="n">
-        <v>13.06719123672183</v>
+        <v>14.41088058254833</v>
       </c>
       <c r="C18" t="inlineStr"/>
       <c r="D18" t="inlineStr"/>
@@ -633,7 +633,7 @@
         <v>1997</v>
       </c>
       <c r="B19" t="n">
-        <v>13.01862537321251</v>
+        <v>12.34066374839719</v>
       </c>
       <c r="C19" t="inlineStr"/>
       <c r="D19" t="inlineStr"/>
@@ -643,7 +643,7 @@
         <v>1998</v>
       </c>
       <c r="B20" t="n">
-        <v>12.1551371940101</v>
+        <v>12.01281372445289</v>
       </c>
       <c r="C20" t="inlineStr"/>
       <c r="D20" t="inlineStr"/>
@@ -653,7 +653,7 @@
         <v>1999</v>
       </c>
       <c r="B21" t="n">
-        <v>12.3085333305115</v>
+        <v>11.69522359811339</v>
       </c>
       <c r="C21" t="inlineStr"/>
       <c r="D21" t="inlineStr"/>
@@ -663,7 +663,7 @@
         <v>2000</v>
       </c>
       <c r="B22" t="n">
-        <v>13.13465959355212</v>
+        <v>12.11527844056818</v>
       </c>
       <c r="C22" t="inlineStr"/>
       <c r="D22" t="inlineStr"/>
@@ -673,7 +673,7 @@
         <v>2001</v>
       </c>
       <c r="B23" t="n">
-        <v>13.0895379354002</v>
+        <v>12.85769184912427</v>
       </c>
       <c r="C23" t="inlineStr"/>
       <c r="D23" t="inlineStr"/>
@@ -683,7 +683,7 @@
         <v>2002</v>
       </c>
       <c r="B24" t="n">
-        <v>12.35696266737341</v>
+        <v>13.02989691982348</v>
       </c>
       <c r="C24" t="inlineStr"/>
       <c r="D24" t="inlineStr"/>
@@ -693,7 +693,7 @@
         <v>2003</v>
       </c>
       <c r="B25" t="n">
-        <v>14.45076456305325</v>
+        <v>12.33057818273365</v>
       </c>
       <c r="C25" t="inlineStr"/>
       <c r="D25" t="inlineStr"/>
@@ -703,7 +703,7 @@
         <v>2004</v>
       </c>
       <c r="B26" t="n">
-        <v>15.09953015638708</v>
+        <v>14.52488669886068</v>
       </c>
       <c r="C26" t="inlineStr"/>
       <c r="D26" t="inlineStr"/>
@@ -713,7 +713,7 @@
         <v>2005</v>
       </c>
       <c r="B27" t="n">
-        <v>14.73828114102268</v>
+        <v>15.44714621010295</v>
       </c>
       <c r="C27" t="inlineStr"/>
       <c r="D27" t="inlineStr"/>
@@ -723,7 +723,7 @@
         <v>2006</v>
       </c>
       <c r="B28" t="n">
-        <v>14.10894587564269</v>
+        <v>14.94197980811095</v>
       </c>
       <c r="C28" t="inlineStr"/>
       <c r="D28" t="inlineStr"/>
@@ -733,7 +733,7 @@
         <v>2007</v>
       </c>
       <c r="B29" t="n">
-        <v>14.1542648058524</v>
+        <v>14.09678566018465</v>
       </c>
       <c r="C29" t="inlineStr"/>
       <c r="D29" t="inlineStr"/>
@@ -743,7 +743,7 @@
         <v>2008</v>
       </c>
       <c r="B30" t="n">
-        <v>13.95517690387126</v>
+        <v>14.43545107883813</v>
       </c>
       <c r="C30" t="inlineStr"/>
       <c r="D30" t="inlineStr"/>
@@ -753,7 +753,7 @@
         <v>2009</v>
       </c>
       <c r="B31" t="n">
-        <v>13.05946215179974</v>
+        <v>14.05931061724406</v>
       </c>
       <c r="C31" t="inlineStr"/>
       <c r="D31" t="inlineStr"/>
@@ -763,7 +763,7 @@
         <v>2010</v>
       </c>
       <c r="B32" t="n">
-        <v>12.72185960924913</v>
+        <v>12.89125570213923</v>
       </c>
       <c r="C32" t="inlineStr"/>
       <c r="D32" t="inlineStr"/>
@@ -773,7 +773,7 @@
         <v>2011</v>
       </c>
       <c r="B33" t="n">
-        <v>11.78379767126887</v>
+        <v>12.76859074378918</v>
       </c>
       <c r="C33" t="inlineStr"/>
       <c r="D33" t="inlineStr"/>
@@ -783,7 +783,7 @@
         <v>2012</v>
       </c>
       <c r="B34" t="n">
-        <v>10.67594230844642</v>
+        <v>11.67685908375189</v>
       </c>
       <c r="C34" t="inlineStr"/>
       <c r="D34" t="inlineStr"/>
@@ -793,7 +793,7 @@
         <v>2013</v>
       </c>
       <c r="B35" t="n">
-        <v>10.47961229213965</v>
+        <v>10.6715087326104</v>
       </c>
       <c r="C35" t="inlineStr"/>
       <c r="D35" t="inlineStr"/>
@@ -803,7 +803,7 @@
         <v>2014</v>
       </c>
       <c r="B36" t="n">
-        <v>10.33709739950734</v>
+        <v>9.982044181972068</v>
       </c>
       <c r="C36" t="inlineStr"/>
       <c r="D36" t="inlineStr"/>
@@ -813,7 +813,7 @@
         <v>2015</v>
       </c>
       <c r="B37" t="n">
-        <v>10.52093744973542</v>
+        <v>10.20656571263829</v>
       </c>
       <c r="C37" t="inlineStr"/>
       <c r="D37" t="inlineStr"/>
@@ -823,7 +823,7 @@
         <v>2016</v>
       </c>
       <c r="B38" t="n">
-        <v>10.78645112033017</v>
+        <v>10.51721796173954</v>
       </c>
       <c r="C38" t="inlineStr"/>
       <c r="D38" t="inlineStr"/>
@@ -874,50 +874,70 @@
         <v>2017</v>
       </c>
       <c r="B2" t="n">
-        <v>10.78645104984802</v>
-      </c>
-      <c r="C2" t="inlineStr"/>
-      <c r="D2" t="inlineStr"/>
+        <v>10.95340261345125</v>
+      </c>
+      <c r="C2" t="n">
+        <v>7.482078622596909</v>
+      </c>
+      <c r="D2" t="n">
+        <v>12.68735771526043</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
         <v>2018</v>
       </c>
       <c r="B3" t="n">
-        <v>10.78645104984802</v>
-      </c>
-      <c r="C3" t="inlineStr"/>
-      <c r="D3" t="inlineStr"/>
+        <v>10.36070950660956</v>
+      </c>
+      <c r="C3" t="n">
+        <v>6.590421315998916</v>
+      </c>
+      <c r="D3" t="n">
+        <v>15.40421170824869</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
         <v>2019</v>
       </c>
       <c r="B4" t="n">
-        <v>10.78645104984802</v>
-      </c>
-      <c r="C4" t="inlineStr"/>
-      <c r="D4" t="inlineStr"/>
+        <v>10.42545954724795</v>
+      </c>
+      <c r="C4" t="n">
+        <v>5.401566899386809</v>
+      </c>
+      <c r="D4" t="n">
+        <v>15.40619674753242</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
         <v>2020</v>
       </c>
       <c r="B5" t="n">
-        <v>10.78645104984802</v>
-      </c>
-      <c r="C5" t="inlineStr"/>
-      <c r="D5" t="inlineStr"/>
+        <v>10.26050215732273</v>
+      </c>
+      <c r="C5" t="n">
+        <v>3.785891935875716</v>
+      </c>
+      <c r="D5" t="n">
+        <v>16.28700951898707</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
         <v>2021</v>
       </c>
       <c r="B6" t="n">
-        <v>10.78645104984802</v>
-      </c>
-      <c r="C6" t="inlineStr"/>
-      <c r="D6" t="inlineStr"/>
+        <v>10.36221570145004</v>
+      </c>
+      <c r="C6" t="n">
+        <v>1.405174562649139</v>
+      </c>
+      <c r="D6" t="n">
+        <v>17.8360937085663</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -965,7 +985,7 @@
         <v>1980</v>
       </c>
       <c r="B2" t="n">
-        <v>29.94925716914291</v>
+        <v>29.88576242563759</v>
       </c>
       <c r="C2" t="inlineStr"/>
       <c r="D2" t="inlineStr"/>
@@ -975,7 +995,7 @@
         <v>1981</v>
       </c>
       <c r="B3" t="n">
-        <v>30.18430948209948</v>
+        <v>30.38857890176013</v>
       </c>
       <c r="C3" t="inlineStr"/>
       <c r="D3" t="inlineStr"/>
@@ -985,7 +1005,7 @@
         <v>1982</v>
       </c>
       <c r="B4" t="n">
-        <v>32.25920381119727</v>
+        <v>30.49817546019628</v>
       </c>
       <c r="C4" t="inlineStr"/>
       <c r="D4" t="inlineStr"/>
@@ -995,7 +1015,7 @@
         <v>1983</v>
       </c>
       <c r="B5" t="n">
-        <v>31.96205941340536</v>
+        <v>32.49356837999431</v>
       </c>
       <c r="C5" t="inlineStr"/>
       <c r="D5" t="inlineStr"/>
@@ -1005,7 +1025,7 @@
         <v>1984</v>
       </c>
       <c r="B6" t="n">
-        <v>34.27124671763331</v>
+        <v>32.39462922938439</v>
       </c>
       <c r="C6" t="inlineStr"/>
       <c r="D6" t="inlineStr"/>
@@ -1015,7 +1035,7 @@
         <v>1985</v>
       </c>
       <c r="B7" t="n">
-        <v>32.47170291984406</v>
+        <v>34.55473520229283</v>
       </c>
       <c r="C7" t="inlineStr"/>
       <c r="D7" t="inlineStr"/>
@@ -1025,7 +1045,7 @@
         <v>1986</v>
       </c>
       <c r="B8" t="n">
-        <v>30.67637054548271</v>
+        <v>32.86274291043618</v>
       </c>
       <c r="C8" t="inlineStr"/>
       <c r="D8" t="inlineStr"/>
@@ -1035,7 +1055,7 @@
         <v>1987</v>
       </c>
       <c r="B9" t="n">
-        <v>29.88182258893424</v>
+        <v>30.92482934815024</v>
       </c>
       <c r="C9" t="inlineStr"/>
       <c r="D9" t="inlineStr"/>
@@ -1045,7 +1065,7 @@
         <v>1988</v>
       </c>
       <c r="B10" t="n">
-        <v>29.978592167725</v>
+        <v>29.70906761662329</v>
       </c>
       <c r="C10" t="inlineStr"/>
       <c r="D10" t="inlineStr"/>
@@ -1055,7 +1075,7 @@
         <v>1989</v>
       </c>
       <c r="B11" t="n">
-        <v>29.26089572859051</v>
+        <v>29.71169479916504</v>
       </c>
       <c r="C11" t="inlineStr"/>
       <c r="D11" t="inlineStr"/>
@@ -1065,7 +1085,7 @@
         <v>1990</v>
       </c>
       <c r="B12" t="n">
-        <v>22.82812987817549</v>
+        <v>29.09563923592938</v>
       </c>
       <c r="C12" t="inlineStr"/>
       <c r="D12" t="inlineStr"/>
@@ -1075,7 +1095,7 @@
         <v>1991</v>
       </c>
       <c r="B13" t="n">
-        <v>21.83906737688613</v>
+        <v>22.36466613851084</v>
       </c>
       <c r="C13" t="inlineStr"/>
       <c r="D13" t="inlineStr"/>
@@ -1085,7 +1105,7 @@
         <v>1992</v>
       </c>
       <c r="B14" t="n">
-        <v>23.30859761087759</v>
+        <v>20.96371817890267</v>
       </c>
       <c r="C14" t="inlineStr"/>
       <c r="D14" t="inlineStr"/>
@@ -1095,7 +1115,7 @@
         <v>1993</v>
       </c>
       <c r="B15" t="n">
-        <v>26.04973651086909</v>
+        <v>22.58701868034652</v>
       </c>
       <c r="C15" t="inlineStr"/>
       <c r="D15" t="inlineStr"/>
@@ -1105,7 +1125,7 @@
         <v>1994</v>
       </c>
       <c r="B16" t="n">
-        <v>23.72123370088062</v>
+        <v>26.00167774925224</v>
       </c>
       <c r="C16" t="inlineStr"/>
       <c r="D16" t="inlineStr"/>
@@ -1115,7 +1135,7 @@
         <v>1995</v>
       </c>
       <c r="B17" t="n">
-        <v>14.54227915106878</v>
+        <v>23.70127895117131</v>
       </c>
       <c r="C17" t="inlineStr"/>
       <c r="D17" t="inlineStr"/>
@@ -1125,7 +1145,7 @@
         <v>1996</v>
       </c>
       <c r="B18" t="n">
-        <v>13.06719123672183</v>
+        <v>13.70312812101156</v>
       </c>
       <c r="C18" t="inlineStr"/>
       <c r="D18" t="inlineStr"/>
@@ -1135,7 +1155,7 @@
         <v>1997</v>
       </c>
       <c r="B19" t="n">
-        <v>13.01862537321251</v>
+        <v>12.00041352528301</v>
       </c>
       <c r="C19" t="inlineStr"/>
       <c r="D19" t="inlineStr"/>
@@ -1145,7 +1165,7 @@
         <v>1998</v>
       </c>
       <c r="B20" t="n">
-        <v>12.1551371940101</v>
+        <v>12.5963167389382</v>
       </c>
       <c r="C20" t="inlineStr"/>
       <c r="D20" t="inlineStr"/>
@@ -1155,7 +1175,7 @@
         <v>1999</v>
       </c>
       <c r="B21" t="n">
-        <v>12.3085333305115</v>
+        <v>11.45574908556074</v>
       </c>
       <c r="C21" t="inlineStr"/>
       <c r="D21" t="inlineStr"/>
@@ -1165,7 +1185,7 @@
         <v>2000</v>
       </c>
       <c r="B22" t="n">
-        <v>13.13465959355212</v>
+        <v>11.9974292891438</v>
       </c>
       <c r="C22" t="inlineStr"/>
       <c r="D22" t="inlineStr"/>
@@ -1175,7 +1195,7 @@
         <v>2001</v>
       </c>
       <c r="B23" t="n">
-        <v>13.0895379354002</v>
+        <v>12.97221728387322</v>
       </c>
       <c r="C23" t="inlineStr"/>
       <c r="D23" t="inlineStr"/>
@@ -1185,7 +1205,7 @@
         <v>2002</v>
       </c>
       <c r="B24" t="n">
-        <v>12.35696266737341</v>
+        <v>12.98608510577144</v>
       </c>
       <c r="C24" t="inlineStr"/>
       <c r="D24" t="inlineStr"/>
@@ -1195,7 +1215,7 @@
         <v>2003</v>
       </c>
       <c r="B25" t="n">
-        <v>14.45076456305325</v>
+        <v>12.26925254958504</v>
       </c>
       <c r="C25" t="inlineStr"/>
       <c r="D25" t="inlineStr"/>
@@ -1205,7 +1225,7 @@
         <v>2004</v>
       </c>
       <c r="B26" t="n">
-        <v>15.09953015638708</v>
+        <v>14.2210999927174</v>
       </c>
       <c r="C26" t="inlineStr"/>
       <c r="D26" t="inlineStr"/>
@@ -1215,7 +1235,7 @@
         <v>2005</v>
       </c>
       <c r="B27" t="n">
-        <v>14.73828114102268</v>
+        <v>15.50048769930302</v>
       </c>
       <c r="C27" t="inlineStr"/>
       <c r="D27" t="inlineStr"/>
@@ -1225,7 +1245,7 @@
         <v>2006</v>
       </c>
       <c r="B28" t="n">
-        <v>14.10894587564269</v>
+        <v>14.74728631212683</v>
       </c>
       <c r="C28" t="inlineStr"/>
       <c r="D28" t="inlineStr"/>
@@ -1235,7 +1255,7 @@
         <v>2007</v>
       </c>
       <c r="B29" t="n">
-        <v>14.1542648058524</v>
+        <v>14.04129560443906</v>
       </c>
       <c r="C29" t="inlineStr"/>
       <c r="D29" t="inlineStr"/>
@@ -1245,7 +1265,7 @@
         <v>2008</v>
       </c>
       <c r="B30" t="n">
-        <v>13.95517690387126</v>
+        <v>14.17931518727079</v>
       </c>
       <c r="C30" t="inlineStr"/>
       <c r="D30" t="inlineStr"/>
@@ -1255,7 +1275,7 @@
         <v>2009</v>
       </c>
       <c r="B31" t="n">
-        <v>13.05946215179974</v>
+        <v>13.93121867223705</v>
       </c>
       <c r="C31" t="inlineStr"/>
       <c r="D31" t="inlineStr"/>
@@ -1265,7 +1285,7 @@
         <v>2010</v>
       </c>
       <c r="B32" t="n">
-        <v>12.72185960924913</v>
+        <v>12.97881473502394</v>
       </c>
       <c r="C32" t="inlineStr"/>
       <c r="D32" t="inlineStr"/>
@@ -1275,7 +1295,7 @@
         <v>2011</v>
       </c>
       <c r="B33" t="n">
-        <v>11.78379767126887</v>
+        <v>12.89580797255796</v>
       </c>
       <c r="C33" t="inlineStr"/>
       <c r="D33" t="inlineStr"/>
@@ -1285,7 +1305,7 @@
         <v>2012</v>
       </c>
       <c r="B34" t="n">
-        <v>10.67594230844642</v>
+        <v>11.7877524366897</v>
       </c>
       <c r="C34" t="inlineStr"/>
       <c r="D34" t="inlineStr"/>
@@ -1295,7 +1315,7 @@
         <v>2013</v>
       </c>
       <c r="B35" t="n">
-        <v>10.47961229213965</v>
+        <v>10.76275923684871</v>
       </c>
       <c r="C35" t="inlineStr"/>
       <c r="D35" t="inlineStr"/>
@@ -1305,7 +1325,7 @@
         <v>2014</v>
       </c>
       <c r="B36" t="n">
-        <v>10.33709739950734</v>
+        <v>10.24908784027332</v>
       </c>
       <c r="C36" t="inlineStr"/>
       <c r="D36" t="inlineStr"/>
@@ -1315,7 +1335,7 @@
         <v>2015</v>
       </c>
       <c r="B37" t="n">
-        <v>10.52093744973542</v>
+        <v>9.812476159270123</v>
       </c>
       <c r="C37" t="inlineStr"/>
       <c r="D37" t="inlineStr"/>
@@ -1325,7 +1345,7 @@
         <v>2016</v>
       </c>
       <c r="B38" t="n">
-        <v>10.78645112033017</v>
+        <v>10.28575566480178</v>
       </c>
       <c r="C38" t="inlineStr"/>
       <c r="D38" t="inlineStr"/>
@@ -1335,7 +1355,7 @@
         <v>2017</v>
       </c>
       <c r="B39" t="n">
-        <v>10.72149801387266</v>
+        <v>10.95824120040219</v>
       </c>
       <c r="C39" t="inlineStr"/>
       <c r="D39" t="inlineStr"/>
@@ -1345,7 +1365,7 @@
         <v>2018</v>
       </c>
       <c r="B40" t="n">
-        <v>10.52845738117833</v>
+        <v>10.95724950990018</v>
       </c>
       <c r="C40" t="inlineStr"/>
       <c r="D40" t="inlineStr"/>
@@ -1355,7 +1375,7 @@
         <v>2019</v>
       </c>
       <c r="B41" t="n">
-        <v>10.33250053589602</v>
+        <v>10.53356690304033</v>
       </c>
       <c r="C41" t="inlineStr"/>
       <c r="D41" t="inlineStr"/>
@@ -1365,7 +1385,7 @@
         <v>2020</v>
       </c>
       <c r="B42" t="n">
-        <v>9.663418179444509</v>
+        <v>10.26259041798395</v>
       </c>
       <c r="C42" t="inlineStr"/>
       <c r="D42" t="inlineStr"/>
@@ -1375,7 +1395,7 @@
         <v>2021</v>
       </c>
       <c r="B43" t="n">
-        <v>9.645341701464915</v>
+        <v>9.493491165448624</v>
       </c>
       <c r="C43" t="inlineStr"/>
       <c r="D43" t="inlineStr"/>
@@ -1426,50 +1446,70 @@
         <v>2022</v>
       </c>
       <c r="B2" t="n">
-        <v>9.645341704320838</v>
-      </c>
-      <c r="C2" t="inlineStr"/>
-      <c r="D2" t="inlineStr"/>
+        <v>9.691205262295027</v>
+      </c>
+      <c r="C2" t="n">
+        <v>6.779023978807862</v>
+      </c>
+      <c r="D2" t="n">
+        <v>11.90294308717593</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
         <v>2023</v>
       </c>
       <c r="B3" t="n">
-        <v>9.645341704320838</v>
-      </c>
-      <c r="C3" t="inlineStr"/>
-      <c r="D3" t="inlineStr"/>
+        <v>9.32580371583137</v>
+      </c>
+      <c r="C3" t="n">
+        <v>6.903423132733076</v>
+      </c>
+      <c r="D3" t="n">
+        <v>13.18125751701931</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
         <v>2024</v>
       </c>
       <c r="B4" t="n">
-        <v>9.645341704320838</v>
-      </c>
-      <c r="C4" t="inlineStr"/>
-      <c r="D4" t="inlineStr"/>
+        <v>9.401412375510027</v>
+      </c>
+      <c r="C4" t="n">
+        <v>5.70417885328335</v>
+      </c>
+      <c r="D4" t="n">
+        <v>13.73644369184729</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
         <v>2025</v>
       </c>
       <c r="B5" t="n">
-        <v>9.645341704320838</v>
-      </c>
-      <c r="C5" t="inlineStr"/>
-      <c r="D5" t="inlineStr"/>
+        <v>9.574011683970154</v>
+      </c>
+      <c r="C5" t="n">
+        <v>4.808313861030981</v>
+      </c>
+      <c r="D5" t="n">
+        <v>14.53422828981553</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
         <v>2026</v>
       </c>
       <c r="B6" t="n">
-        <v>9.645341704320838</v>
-      </c>
-      <c r="C6" t="inlineStr"/>
-      <c r="D6" t="inlineStr"/>
+        <v>9.431118643078726</v>
+      </c>
+      <c r="C6" t="n">
+        <v>4.050226624780561</v>
+      </c>
+      <c r="D6" t="n">
+        <v>15.68425526889676</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
